--- a/Definitions/7_Definitions_Design_Patterns.xlsx
+++ b/Definitions/7_Definitions_Design_Patterns.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Feature" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="General Definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Creational" sheetId="4" r:id="rId3"/>
+    <sheet name="Structural" sheetId="5" r:id="rId4"/>
+    <sheet name="Behavioral" sheetId="6" r:id="rId5"/>
+    <sheet name="J2EE" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>Topic</t>
   </si>
@@ -31,13 +34,272 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Material Links</t>
+  </si>
+  <si>
+    <t>Tutorials Point</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/design_pattern/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.javatpoint.com/design-patterns-in-java</t>
+  </si>
+  <si>
+    <t>http://www.journaldev.com/1827/java-design-patterns-example-tutorial</t>
+  </si>
+  <si>
+    <t>http://www.fluffycat.com/Java-Design-Patterns/</t>
+  </si>
+  <si>
+    <t>Link 2</t>
+  </si>
+  <si>
+    <t>Link 3</t>
+  </si>
+  <si>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>General Definitions</t>
+  </si>
+  <si>
+    <t>What is Design Patterns</t>
+  </si>
+  <si>
+    <t>Design patterns represent the best practices used by experienced object-oriented software developers. Design patterns are solutions to general problems that software developers faced during software development. These solutions were obtained by trial and error by numerous software developers over quite a substantial period of time</t>
+  </si>
+  <si>
+    <t>What is Gang of Four (GOF)</t>
+  </si>
+  <si>
+    <t>In 1994, four authors Erich Gamma, Richard Helm, Ralph Johnson and John Vlissides published a book titled Design Patterns - Elements of Reusable Object-Oriented Software which initiated the concept of Design Pattern in Software development.
+These authors are collectively known as Gang of Four (GOF). According to these authors design patterns are primarily based on the following principles of object orientated design.
+1. Program to an interface not an implementation
+2. Favor object composition over inheritance</t>
+  </si>
+  <si>
+    <t>Usage of Design Pattern</t>
+  </si>
+  <si>
+    <t>1. Common platform for developers
+2. Best Practices</t>
+  </si>
+  <si>
+    <t>Common Platform for Developers</t>
+  </si>
+  <si>
+    <t>Design patterns provide a standard terminology and are specific to particular scenario. For example, a singleton design pattern signifies use of single object so all developers familiar with single design pattern will make use of single object and they can tell each other that program is following a singleton pattern.</t>
+  </si>
+  <si>
+    <t>Best Practices</t>
+  </si>
+  <si>
+    <t>Design patterns have been evolved over a long period of time and they provide best solutions to certain problems faced during software development. Learning these patterns helps unexperienced developers to learn software design in an easy and faster way.</t>
+  </si>
+  <si>
+    <t>Types of Design Patterns</t>
+  </si>
+  <si>
+    <t>1. Creational Patterns
+2. Structural Patterns
+3. Behavioral Patterns
+4. J2EE Patterns</t>
+  </si>
+  <si>
+    <t>Creational Patterns</t>
+  </si>
+  <si>
+    <t>Structural Patterns</t>
+  </si>
+  <si>
+    <t>Behavioral Patterns</t>
+  </si>
+  <si>
+    <t>J2EE Patterns</t>
+  </si>
+  <si>
+    <t>These design patterns provide a way to create objects while hiding the creation logic, rather than instantiating objects directly using new opreator. This gives program more flexibility in deciding which objects need to be created for a given use case.</t>
+  </si>
+  <si>
+    <t>These design patterns concern class and object composition. Concept of inheritance is used to compose interfaces and define ways to compose objects to obtain new functionalities</t>
+  </si>
+  <si>
+    <t>These design patterns are specifically concerned with communication between objects</t>
+  </si>
+  <si>
+    <t>These design patterns are specifically concerned with the presentation tier. These patterns are identified by Sun Java Center</t>
+  </si>
+  <si>
+    <t>Creational Patterns Examples</t>
+  </si>
+  <si>
+    <t>Factory Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\1_factory_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Abstract Factory Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\2_abstract_factory_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Single Pattern</t>
+  </si>
+  <si>
+    <t>Singleton pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\3_singleton_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Design Pattern Definitions</t>
+  </si>
+  <si>
+    <t>Builder Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\4_builder_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Prototype Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\5_prototype_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Adapter Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\6_adapter_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Bridge Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\7_bridge_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Filter Pattern (or) Criteria Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\8_filter_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Composite Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\9_composite_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Decorator Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\a_decorator_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Façade Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\b_facade_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Flyweight Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\c_flyweight_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Proxy Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\d_proxy_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Chain Of Responsibility Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\e_chain_of_responsibility_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Command Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\f_command_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Interpreter Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\g_interpreter_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Iterator Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\h_iterator_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Mediator Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\i_mediator_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Memento Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\j_memento_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Observer Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\k_observer_pattern.pdf</t>
+  </si>
+  <si>
+    <t>State Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\l_state_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Null Object Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\m_null_object_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Strategy Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\n_strategy_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Template Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\o_template_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Visitor Pattern</t>
+  </si>
+  <si>
+    <t>Refer images\u_design_patterns\p_visitor_pattern.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,21 +314,97 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,9 +415,30 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,39 +734,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="129.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="A13" location="'General Definitions'!A1" display="General Definitions"/>
+    <hyperlink ref="A14" location="Creational!A1" display="Creational Patterns"/>
+    <hyperlink ref="A15" location="Structural!A1" display="Structural Patterns"/>
+    <hyperlink ref="A16" location="Behavioral!A1" display="Behavioral Patterns"/>
+    <hyperlink ref="A17" location="J2EE!A1" display="J2EE Patterns"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -416,22 +859,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="122.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="122.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="Feature!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B1" location="'General Definitions'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A13" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -439,12 +989,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
+    <hyperlink ref="B1" location="Creational!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="120.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
+    <hyperlink ref="B1" location="Structural!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="131.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="B1" location="Behavioral!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+    <hyperlink ref="B1" location="J2EE!A2" display="Up"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/7_Definitions_Design_Patterns.xlsx
+++ b/Definitions/7_Definitions_Design_Patterns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Structural" sheetId="5" r:id="rId4"/>
     <sheet name="Behavioral" sheetId="6" r:id="rId5"/>
     <sheet name="J2EE" sheetId="7" r:id="rId6"/>
+    <sheet name="Togglz" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Topic</t>
   </si>
@@ -293,6 +294,21 @@
   </si>
   <si>
     <t>Refer images\u_design_patterns\p_visitor_pattern.pdf</t>
+  </si>
+  <si>
+    <t>Togglz</t>
+  </si>
+  <si>
+    <t>Togglz home page</t>
+  </si>
+  <si>
+    <t>http://www.togglz.org/</t>
+  </si>
+  <si>
+    <t>Togglz stack overflow</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/tagged/togglz</t>
   </si>
 </sst>
 </file>
@@ -424,12 +440,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -438,6 +448,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,7 +753,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,10 +771,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -793,10 +809,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
@@ -821,6 +837,11 @@
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -843,6 +864,7 @@
     <hyperlink ref="A15" location="Structural!A1" display="Structural Patterns"/>
     <hyperlink ref="A16" location="Behavioral!A1" display="Behavioral Patterns"/>
     <hyperlink ref="A17" location="J2EE!A1" display="J2EE Patterns"/>
+    <hyperlink ref="A18" location="Togglz!A1" display="Togglz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -859,106 +881,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="122.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="122.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
@@ -966,12 +988,12 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1003,18 +1025,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -1084,18 +1106,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -1177,9 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,18 +1211,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -1336,10 +1358,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1350,4 +1372,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="119.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Togglz!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/7_Definitions_Design_Patterns.xlsx
+++ b/Definitions/7_Definitions_Design_Patterns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>

--- a/Definitions/7_Definitions_Design_Patterns.xlsx
+++ b/Definitions/7_Definitions_Design_Patterns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -752,14 +752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="129.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="129.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -881,8 +881,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="122.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="63.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="122.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -923,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1015,13 +1015,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="121.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1096,13 +1096,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.875" customWidth="1"/>
+    <col min="2" max="2" width="120.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1199,15 +1199,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="131.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="131.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1347,14 +1347,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
-    <col min="2" max="2" width="121.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="121.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1385,8 +1385,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="119.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.375" customWidth="1"/>
+    <col min="2" max="2" width="119.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
